--- a/data/542/BOKNA/old/Monthly_NA2.xlsx
+++ b/data/542/BOKNA/old/Monthly_NA2.xlsx
@@ -1161,8 +1161,10 @@
     <col min="744" max="744" width="9.0" customWidth="true"/>
     <col min="745" max="745" width="9.0" customWidth="true"/>
     <col min="746" max="746" width="9.0" customWidth="true"/>
-    <col min="747" max="747" width="4.0" customWidth="true"/>
-    <col min="748" max="748" width="4.0" customWidth="true"/>
+    <col min="747" max="747" width="9.0" customWidth="true"/>
+    <col min="748" max="748" width="9.0" customWidth="true"/>
+    <col min="749" max="749" width="4.0" customWidth="true"/>
+    <col min="750" max="750" width="4.0" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4906,6 +4908,16 @@
           <t>2021/10</t>
         </is>
       </c>
+      <c r="ABU1" s="2" t="inlineStr">
+        <is>
+          <t>2021/11</t>
+        </is>
+      </c>
+      <c r="ABV1" s="2" t="inlineStr">
+        <is>
+          <t>2021/12</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -7993,17 +8005,23 @@
         <v>125.5</v>
       </c>
       <c r="ABQ2" s="3" t="n">
-        <v>127.2</v>
+        <v>127.1</v>
       </c>
       <c r="ABR2" s="3" t="n">
         <v>124.2</v>
       </c>
-      <c r="ABS2" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT2" s="1" t="inlineStr">
+      <c r="ABS2" s="3" t="n">
+        <v>131.7</v>
+      </c>
+      <c r="ABT2" s="3" t="n">
+        <v>133.8</v>
+      </c>
+      <c r="ABU2" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV2" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -11100,12 +11118,18 @@
       <c r="ABR3" s="3" t="n">
         <v>99.9</v>
       </c>
-      <c r="ABS3" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT3" s="1" t="inlineStr">
+      <c r="ABS3" s="3" t="n">
+        <v>122.3</v>
+      </c>
+      <c r="ABT3" s="3" t="n">
+        <v>137.4</v>
+      </c>
+      <c r="ABU3" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV3" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -14197,17 +14221,23 @@
         <v>103.0</v>
       </c>
       <c r="ABQ4" s="3" t="n">
-        <v>108.4</v>
+        <v>108.3</v>
       </c>
       <c r="ABR4" s="3" t="n">
-        <v>108.1</v>
-      </c>
-      <c r="ABS4" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT4" s="1" t="inlineStr">
+        <v>107.9</v>
+      </c>
+      <c r="ABS4" s="3" t="n">
+        <v>120.8</v>
+      </c>
+      <c r="ABT4" s="3" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="ABU4" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV4" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -17304,12 +17334,18 @@
       <c r="ABR5" s="3" t="n">
         <v>184.6</v>
       </c>
-      <c r="ABS5" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT5" s="1" t="inlineStr">
+      <c r="ABS5" s="3" t="n">
+        <v>186.5</v>
+      </c>
+      <c r="ABT5" s="3" t="n">
+        <v>185.2</v>
+      </c>
+      <c r="ABU5" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV5" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -20646,12 +20682,18 @@
       <c r="ABR6" s="3" t="n">
         <v>87.8</v>
       </c>
-      <c r="ABS6" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT6" s="1" t="inlineStr">
+      <c r="ABS6" s="3" t="n">
+        <v>99.7</v>
+      </c>
+      <c r="ABT6" s="3" t="n">
+        <v>101.8</v>
+      </c>
+      <c r="ABU6" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV6" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -23868,12 +23910,18 @@
       <c r="ABR7" s="3" t="n">
         <v>324.4</v>
       </c>
-      <c r="ABS7" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT7" s="1" t="inlineStr">
+      <c r="ABS7" s="3" t="n">
+        <v>340.3</v>
+      </c>
+      <c r="ABT7" s="3" t="n">
+        <v>357.3</v>
+      </c>
+      <c r="ABU7" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV7" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -27325,17 +27373,23 @@
         <v>75.5</v>
       </c>
       <c r="ABQ8" s="3" t="n">
-        <v>77.4</v>
+        <v>77.2</v>
       </c>
       <c r="ABR8" s="3" t="n">
-        <v>76.1</v>
-      </c>
-      <c r="ABS8" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT8" s="1" t="inlineStr">
+        <v>75.7</v>
+      </c>
+      <c r="ABS8" s="3" t="n">
+        <v>84.8</v>
+      </c>
+      <c r="ABT8" s="3" t="n">
+        <v>78.0</v>
+      </c>
+      <c r="ABU8" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV8" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -30430,14 +30484,20 @@
         <v>120.0</v>
       </c>
       <c r="ABR9" s="3" t="n">
-        <v>116.1</v>
-      </c>
-      <c r="ABS9" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT9" s="1" t="inlineStr">
+        <v>116.0</v>
+      </c>
+      <c r="ABS9" s="3" t="n">
+        <v>122.0</v>
+      </c>
+      <c r="ABT9" s="3" t="n">
+        <v>124.2</v>
+      </c>
+      <c r="ABU9" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV9" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -33534,12 +33594,18 @@
       <c r="ABR10" s="3" t="n">
         <v>95.2</v>
       </c>
-      <c r="ABS10" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT10" s="1" t="inlineStr">
+      <c r="ABS10" s="3" t="n">
+        <v>115.3</v>
+      </c>
+      <c r="ABT10" s="3" t="n">
+        <v>130.4</v>
+      </c>
+      <c r="ABU10" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV10" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -36631,17 +36697,23 @@
         <v>90.2</v>
       </c>
       <c r="ABQ11" s="3" t="n">
-        <v>94.8</v>
+        <v>94.7</v>
       </c>
       <c r="ABR11" s="3" t="n">
-        <v>92.8</v>
-      </c>
-      <c r="ABS11" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT11" s="1" t="inlineStr">
+        <v>92.6</v>
+      </c>
+      <c r="ABS11" s="3" t="n">
+        <v>102.0</v>
+      </c>
+      <c r="ABT11" s="3" t="n">
+        <v>85.9</v>
+      </c>
+      <c r="ABU11" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV11" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -39738,12 +39810,18 @@
       <c r="ABR12" s="3" t="n">
         <v>167.3</v>
       </c>
-      <c r="ABS12" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT12" s="1" t="inlineStr">
+      <c r="ABS12" s="3" t="n">
+        <v>167.0</v>
+      </c>
+      <c r="ABT12" s="3" t="n">
+        <v>166.5</v>
+      </c>
+      <c r="ABU12" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV12" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -43078,14 +43156,20 @@
         <v>86.9</v>
       </c>
       <c r="ABR13" s="3" t="n">
-        <v>84.2</v>
-      </c>
-      <c r="ABS13" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT13" s="1" t="inlineStr">
+        <v>84.1</v>
+      </c>
+      <c r="ABS13" s="3" t="n">
+        <v>94.3</v>
+      </c>
+      <c r="ABT13" s="3" t="n">
+        <v>97.0</v>
+      </c>
+      <c r="ABU13" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV13" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -46302,12 +46386,18 @@
       <c r="ABR14" s="3" t="n">
         <v>307.5</v>
       </c>
-      <c r="ABS14" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT14" s="1" t="inlineStr">
+      <c r="ABS14" s="3" t="n">
+        <v>319.8</v>
+      </c>
+      <c r="ABT14" s="3" t="n">
+        <v>338.5</v>
+      </c>
+      <c r="ABU14" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV14" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -49759,17 +49849,23 @@
         <v>69.6</v>
       </c>
       <c r="ABQ15" s="3" t="n">
-        <v>71.2</v>
+        <v>71.0</v>
       </c>
       <c r="ABR15" s="3" t="n">
-        <v>68.8</v>
-      </c>
-      <c r="ABS15" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT15" s="1" t="inlineStr">
+        <v>68.4</v>
+      </c>
+      <c r="ABS15" s="3" t="n">
+        <v>76.3</v>
+      </c>
+      <c r="ABT15" s="3" t="n">
+        <v>70.2</v>
+      </c>
+      <c r="ABU15" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV15" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -52864,14 +52960,20 @@
         <v>119.4</v>
       </c>
       <c r="ABR16" s="3" t="n">
-        <v>118.5</v>
-      </c>
-      <c r="ABS16" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT16" s="1" t="inlineStr">
+        <v>118.4</v>
+      </c>
+      <c r="ABS16" s="3" t="n">
+        <v>121.3</v>
+      </c>
+      <c r="ABT16" s="3" t="n">
+        <v>121.5</v>
+      </c>
+      <c r="ABU16" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV16" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -55968,12 +56070,18 @@
       <c r="ABR17" s="3" t="n">
         <v>110.5</v>
       </c>
-      <c r="ABS17" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT17" s="1" t="inlineStr">
+      <c r="ABS17" s="3" t="n">
+        <v>115.6</v>
+      </c>
+      <c r="ABT17" s="3" t="n">
+        <v>115.4</v>
+      </c>
+      <c r="ABU17" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV17" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -59065,17 +59173,23 @@
         <v>87.9</v>
       </c>
       <c r="ABQ18" s="3" t="n">
-        <v>92.0</v>
+        <v>91.9</v>
       </c>
       <c r="ABR18" s="3" t="n">
-        <v>88.6</v>
-      </c>
-      <c r="ABS18" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT18" s="1" t="inlineStr">
+        <v>88.4</v>
+      </c>
+      <c r="ABS18" s="3" t="n">
+        <v>95.6</v>
+      </c>
+      <c r="ABT18" s="3" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="ABU18" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV18" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -62172,12 +62286,18 @@
       <c r="ABR19" s="3" t="n">
         <v>153.5</v>
       </c>
-      <c r="ABS19" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT19" s="1" t="inlineStr">
+      <c r="ABS19" s="3" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="ABT19" s="3" t="n">
+        <v>161.4</v>
+      </c>
+      <c r="ABU19" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV19" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -65512,14 +65632,20 @@
         <v>90.7</v>
       </c>
       <c r="ABR20" s="3" t="n">
-        <v>90.0</v>
-      </c>
-      <c r="ABS20" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT20" s="1" t="inlineStr">
+        <v>89.9</v>
+      </c>
+      <c r="ABS20" s="3" t="n">
+        <v>95.0</v>
+      </c>
+      <c r="ABT20" s="3" t="n">
+        <v>92.5</v>
+      </c>
+      <c r="ABU20" s="1" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="ABV20" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -68252,14 +68378,18 @@
         <v>141.8</v>
       </c>
       <c r="ABR21" s="3" t="n">
-        <v>141.18</v>
-      </c>
-      <c r="ABS21" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT21" s="1" t="inlineStr">
+        <v>143.07</v>
+      </c>
+      <c r="ABS21" s="3" t="n">
+        <v>149.73</v>
+      </c>
+      <c r="ABT21" s="3" t="n">
+        <v>164.86</v>
+      </c>
+      <c r="ABU21" s="3" t="n">
+        <v>162.82</v>
+      </c>
+      <c r="ABV21" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -70992,14 +71122,18 @@
         <v>118.39</v>
       </c>
       <c r="ABR22" s="3" t="n">
-        <v>119.72</v>
-      </c>
-      <c r="ABS22" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT22" s="1" t="inlineStr">
+        <v>120.27</v>
+      </c>
+      <c r="ABS22" s="3" t="n">
+        <v>122.07</v>
+      </c>
+      <c r="ABT22" s="3" t="n">
+        <v>126.69</v>
+      </c>
+      <c r="ABU22" s="3" t="n">
+        <v>126.33</v>
+      </c>
+      <c r="ABV22" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -73734,12 +73868,16 @@
       <c r="ABR23" s="3" t="n">
         <v>108.58</v>
       </c>
-      <c r="ABS23" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT23" s="1" t="inlineStr">
+      <c r="ABS23" s="3" t="n">
+        <v>109.47</v>
+      </c>
+      <c r="ABT23" s="3" t="n">
+        <v>109.73</v>
+      </c>
+      <c r="ABU23" s="3" t="n">
+        <v>109.14</v>
+      </c>
+      <c r="ABV23" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -76832,14 +76970,18 @@
         <v>98.87</v>
       </c>
       <c r="ABR24" s="3" t="n">
-        <v>99.86</v>
-      </c>
-      <c r="ABS24" s="1" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="ABT24" s="1" t="inlineStr">
+        <v>100.21</v>
+      </c>
+      <c r="ABS24" s="3" t="n">
+        <v>100.68</v>
+      </c>
+      <c r="ABT24" s="3" t="n">
+        <v>102.79</v>
+      </c>
+      <c r="ABU24" s="3" t="n">
+        <v>102.95</v>
+      </c>
+      <c r="ABV24" s="1" t="inlineStr">
         <is>
           <t/>
         </is>
